--- a/model_material/Viola_data/Viola_all_data_AK.xlsx
+++ b/model_material/Viola_data/Viola_all_data_AK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9900" tabRatio="969" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building_info_Viola" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="580">
   <si>
     <t>mfh01</t>
   </si>
@@ -1837,6 +1837,9 @@
   </si>
   <si>
     <t>Polyethelyne fleece</t>
+  </si>
+  <si>
+    <t>Electric heat pump air water (92 kW)</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2173,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -2406,11 +2409,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5210,11 +5216,11 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5427,44 +5433,44 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" s="128" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="48" t="s">
         <v>180</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="48" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6098,10 +6104,10 @@
   </sheetPr>
   <dimension ref="A1:AC392"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A379" sqref="A379"/>
-      <selection pane="topRight" activeCell="A114" sqref="A114"/>
+      <selection pane="topRight" activeCell="A370" sqref="A370:C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9323,12 +9329,12 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="127" t="s">
+      <c r="A111" s="126" t="s">
         <v>291</v>
       </c>
       <c r="B111" s="66"/>
       <c r="C111" s="30"/>
-      <c r="D111" s="126">
+      <c r="D111" s="125">
         <v>0.01</v>
       </c>
       <c r="E111" s="30"/>
@@ -9703,11 +9709,11 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="127" t="s">
+      <c r="A127" s="126" t="s">
         <v>578</v>
       </c>
       <c r="B127" s="66"/>
-      <c r="D127" s="126">
+      <c r="D127" s="125">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E127" s="30"/>
@@ -16377,8 +16383,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="105"/>
       <c r="D1" s="105"/>
       <c r="E1" s="105"/>
@@ -16433,8 +16439,8 @@
       <c r="AD1" s="109"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="110" t="s">
         <v>524</v>
       </c>
